--- a/ResultadoEleicoesDistritos/SETÚBAL_GRÂNDOLA.xlsx
+++ b/ResultadoEleicoesDistritos/SETÚBAL_GRÂNDOLA.xlsx
@@ -597,64 +597,64 @@
         <v>3528</v>
       </c>
       <c r="H2" t="n">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="I2" t="n">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="J2" t="n">
-        <v>1508</v>
+        <v>1495</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N2" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S2" t="n">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="T2" t="n">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="U2" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="V2" t="n">
-        <v>2263</v>
+        <v>2226</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2241</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1</v>
       </c>
-      <c r="X2" t="n">
-        <v>2234</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2</v>
-      </c>
       <c r="Z2" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
